--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail0 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,29 +3173,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>6.327921541073277e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8234106660908714</v>
+        <v>3.970281716628785e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.800431844493891</v>
+        <v>6.907151925859889e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.970281716628785e-06</v>
+        <v>0.0747536796008349</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.907151925859889e-06</v>
+        <v>0.2552640320154859</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0747536796008349</v>
+        <v>0.07062003490143098</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2552640320154859</v>
+        <v>1.566401403071429</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07062003490143098</v>
+        <v>1.358282242170843</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.488203055272459</v>
+        <v>5.672810734941288</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.358282242170843</v>
+        <v>5.317921499588114e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.672810734941288</v>
+        <v>11977210.47003269</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.317921499588114e-14</v>
+        <v>8.728620303150188e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11977210.47003269</v>
+        <v>7.628748275175424</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.728620303150188e-06</v>
+        <v>0.0001088804838858052</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.628748275175424</v>
+        <v>7.609826587751395</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001088804838858052</v>
+        <v>1.70909513084472</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.609826587751395</v>
+        <v>0.006305210102108176</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.70909513084472</v>
+        <v>3.230942454816899</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006305210102108176</v>
+        <v>0.9374800964389599</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.230942454816899</v>
+        <v>1.893905443754988</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9374800964389599</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.893905443754988</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2772215964723561</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>5.503902089113232e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.07318753449353604</v>
+        <v>3.179347568173303e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.8894132537536077</v>
+        <v>6.947464100847084e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.179347568173303e-06</v>
+        <v>0.06186795516561005</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.947464100847084e-06</v>
+        <v>0.2345151894243842</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06186795516561005</v>
+        <v>0.058725398125699</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2345151894243842</v>
+        <v>1.647128839693043</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.058725398125699</v>
+        <v>1.627258850583005</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.569506035675679</v>
+        <v>4.766566603801126</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.627258850583005</v>
+        <v>2.303198730327186e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.766566603801126</v>
+        <v>25920461.95348037</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.303198730327186e-14</v>
+        <v>4.204298236612553e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>25920461.95348037</v>
+        <v>15.474509321859</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.204298236612553e-06</v>
+        <v>0.0001035847529463943</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15.474509321859</v>
+        <v>6.956959826160007</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001035847529463943</v>
+        <v>1.41070979011956</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.956959826160007</v>
+        <v>0.005013428499793069</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.41070979011956</v>
+        <v>3.348919374117732</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005013428499793069</v>
+        <v>0.9521006992260741</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.348919374117732</v>
+        <v>1.806697691169956</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9521006992260741</v>
+        <v>27</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.806697691169956</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2406496536531673</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>5.010851712453255e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4488205969401623</v>
+        <v>2.593474396605852e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.0326956682533055</v>
+        <v>6.976372414346415e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.593474396605852e-06</v>
+        <v>0.04858611283658986</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.976372414346415e-06</v>
+        <v>0.2135035700397557</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04858611283658986</v>
+        <v>0.04787992780404588</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2135035700397557</v>
+        <v>1.660789588089496</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04787992780404588</v>
+        <v>1.563412417155522</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.583778572831493</v>
+        <v>4.814290899186267</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.563412417155522</v>
+        <v>2.257761624436174e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.814290899186267</v>
+        <v>24743698.83930211</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.257761624436174e-14</v>
+        <v>4.378220040988086e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24743698.83930211</v>
+        <v>13.82315982031016</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.378220040988086e-06</v>
+        <v>0.0001195984774273183</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>13.82315982031016</v>
+        <v>8.833981548827495</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001195984774273183</v>
+        <v>1.255735383681505</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.833981548827495</v>
+        <v>0.009333373088201237</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.255735383681505</v>
+        <v>3.140032394024482</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009333373088201237</v>
+        <v>0.95249576785421</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.140032394024482</v>
+        <v>1.844831309178328</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.95249576785421</v>
+        <v>34</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.844831309178328</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2338000212087285</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>4.731082008296764e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7292149535319643</v>
+        <v>2.153915272298979e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3023375319726096</v>
+        <v>6.996929543086993e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.153915272298979e-06</v>
+        <v>0.03630321286341314</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.996929543086993e-06</v>
+        <v>0.1948770331082622</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03630321286341314</v>
+        <v>0.03925197653534696</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1948770331082622</v>
+        <v>1.642593466078908</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03925197653534696</v>
+        <v>1.506596903479805</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.56127005411906</v>
+        <v>4.88166618779007</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.506596903479805</v>
+        <v>2.195869804579143e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.88166618779007</v>
+        <v>25120598.51951583</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.195869804579143e-14</v>
+        <v>4.2780050936112e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25120598.51951583</v>
+        <v>13.85691496972878</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.2780050936112e-06</v>
+        <v>0.000147549055961188</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.85691496972878</v>
+        <v>10.8650236026714</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000147549055961188</v>
+        <v>1.109743080302946</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.8650236026714</v>
+        <v>0.01741797983257853</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.109743080302946</v>
+        <v>2.869683321383423</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01741797983257853</v>
+        <v>0.9522417910321336</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.869683321383423</v>
+        <v>1.796535491027212</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9522417910321336</v>
+        <v>34</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.796535491027212</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2344551268282895</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>4.583633569739478e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8361807025187683</v>
+        <v>1.815162830107396e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3106149714180839</v>
+        <v>7.011365400615433e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.815162830107396e-06</v>
+        <v>0.02632353088479299</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.011365400615433e-06</v>
+        <v>0.1791371766699106</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02632353088479299</v>
+        <v>0.03275461299576934</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1791371766699106</v>
+        <v>1.681901121270061</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03275461299576934</v>
+        <v>1.657445244626175</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.600359500301766</v>
+        <v>5.190553805083444</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.657445244626175</v>
+        <v>2.340806322087431e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.190553805083444</v>
+        <v>23188877.87983226</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.340806322087431e-14</v>
+        <v>4.760615576430468e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>23188877.87983226</v>
+        <v>12.58707872926676</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.760615576430468e-06</v>
+        <v>0.0001582223536210209</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>12.58707872926676</v>
+        <v>8.548976813491318</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001582223536210209</v>
+        <v>1.796926988727942</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.548976813491318</v>
+        <v>0.01156368143550843</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.796926988727942</v>
+        <v>3.214827949688271</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01156368143550843</v>
+        <v>0.9556644063593653</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.214827949688271</v>
+        <v>1.732423581851744</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9556644063593653</v>
+        <v>34</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.732423581851744</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2306634981052263</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>4.513773879192066e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8504776711192461</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.280449392727053</v>
+        <v>7.0215481698379e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.01888764069350179</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.0215481698379e-06</v>
+        <v>0.1665198256810003</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01888764069350179</v>
+        <v>0.0280675660858836</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1665198256810003</v>
+        <v>1.623958844813747</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0280675660858836</v>
+        <v>1.488288517360603</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.545517040320914</v>
+        <v>6.461301259884282</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.488288517360603</v>
+        <v>1.916151004911274e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.461301259884282</v>
+        <v>30655088.38307271</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.916151004911274e-14</v>
+        <v>3.383522784197642e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>30655088.38307271</v>
+        <v>18.00673098787287</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.383522784197642e-06</v>
+        <v>9.257486030851217e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>18.00673098787287</v>
+        <v>6.112748174149212</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.257486030851217e-05</v>
+        <v>2.002878600960888</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.112748174149212</v>
+        <v>0.003459123554351397</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.002878600960888</v>
+        <v>3.574804667898296</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003459123554351397</v>
+        <v>0.9511573605066606</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.574804667898296</v>
+        <v>1.766586954935516</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9511573605066606</v>
+        <v>34</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.766586954935516</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.357997256715552</v>
       </c>
     </row>
@@ -3821,72 +3773,66 @@
         <v>4.485216760943472e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8307501088387966</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2748866231717146</v>
+        <v>7.028623957080639e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.01285072254131693</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.028623957080639e-06</v>
+        <v>0.1593560645132992</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01285072254131693</v>
+        <v>0.02555366308258391</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1593560645132992</v>
+        <v>1.636302601435206</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02555366308258391</v>
+        <v>1.560593182412287</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.555921345872591</v>
+        <v>4.850621496672495</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.560593182412287</v>
+        <v>4.364762551560335e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.850621496672495</v>
+        <v>13331715.46811778</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.364762551560335e-14</v>
+        <v>7.842802173151477e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13331715.46811778</v>
+        <v>7.757694891019377</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.842802173151477e-06</v>
+        <v>0.0001253623375589024</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.757694891019377</v>
+        <v>8.525728055398012</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001253623375589024</v>
+        <v>2.454577506893241</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.525728055398012</v>
+        <v>0.009112342465892322</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.454577506893241</v>
+        <v>3.574426666285439</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009112342465892322</v>
+        <v>0.9511925309314605</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.574426666285439</v>
+        <v>1.906243472273044</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9511925309314605</v>
+        <v>34</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.906243472273044</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2920558890550687</v>
       </c>
     </row>
@@ -3901,72 +3847,66 @@
         <v>4.472480713967467e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8096539408658879</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2804109531957817</v>
+        <v>7.033323302511373e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.008415323460493524</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.033323302511373e-06</v>
+        <v>0.1584541755184625</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.008415323460493524</v>
+        <v>0.02517691571521787</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1584541755184625</v>
+        <v>1.619109645546539</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02517691571521787</v>
+        <v>1.506718023963729</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.540220655605663</v>
+        <v>4.0025240249898</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.506718023963729</v>
+        <v>6.410435014316095e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.0025240249898</v>
+        <v>9482221.773142593</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.410435014316095e-14</v>
+        <v>1.109912635664901e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>9482221.773142593</v>
+        <v>5.763784289675709</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.109912635664901e-05</v>
+        <v>0.0001178446962356005</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.763784289675709</v>
+        <v>8.590513724977132</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001178446962356005</v>
+        <v>2.208554506686833</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.590513724977132</v>
+        <v>0.00869657633454634</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.208554506686833</v>
+        <v>3.462619997398976</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00869657633454634</v>
+        <v>0.9513647393872054</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.462619997398976</v>
+        <v>1.857020403188084</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9513647393872054</v>
+        <v>31</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.857020403188084</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2333359187189339</v>
       </c>
     </row>
@@ -3981,72 +3921,66 @@
         <v>4.463855456901571e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7959825458446675</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2820839441341678</v>
+        <v>7.03634581668725e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.005264841615528452</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.03634581668725e-06</v>
+        <v>0.1599956176228454</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.005264841615528452</v>
+        <v>0.02562456795775873</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1599956176228454</v>
+        <v>1.587317496169945</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02562456795775873</v>
+        <v>1.487049441814126</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.502018210616276</v>
+        <v>3.941513546486952</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.487049441814126</v>
+        <v>6.610424505524752e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.941513546486952</v>
+        <v>9269439.141162131</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.610424505524752e-14</v>
+        <v>1.122552492139111e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>9269439.141162131</v>
+        <v>5.679842127419895</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.122552492139111e-05</v>
+        <v>0.0001066658441962752</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.679842127419895</v>
+        <v>7.755766827474963</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001066658441962752</v>
+        <v>1.247852046037816</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.755766827474963</v>
+        <v>0.006416155228924745</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.247852046037816</v>
+        <v>3.23624088947842</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006416155228924745</v>
+        <v>0.9488234953085974</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.23624088947842</v>
+        <v>1.841653918380466</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9488234953085974</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.841653918380466</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2238103671522677</v>
       </c>
     </row>
@@ -4061,72 +3995,66 @@
         <v>4.457211562969289e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7891215083708384</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2796068443452699</v>
+        <v>7.038153526783753e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.002912977100785322</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.038153526783753e-06</v>
+        <v>0.1616562273825121</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.002912977100785322</v>
+        <v>0.02613947688515525</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1616562273825121</v>
+        <v>1.579335964103153</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02613947688515525</v>
+        <v>1.48131058858898</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.492501334211329</v>
+        <v>3.97030002064379</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.48131058858898</v>
+        <v>6.51491486348521e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.97030002064379</v>
+        <v>9399277.946409989</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.51491486348521e-14</v>
+        <v>1.103390855421238e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9399277.946409989</v>
+        <v>5.755694433220613</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.103390855421238e-05</v>
+        <v>0.0001187641757666906</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.755694433220613</v>
+        <v>8.203563203125986</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001187641757666906</v>
+        <v>1.233632414073135</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.203563203125986</v>
+        <v>0.007992644852902213</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.233632414073135</v>
+        <v>3.038676548620693</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007992644852902213</v>
+        <v>0.9468712642347186</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.038676548620693</v>
+        <v>1.873892810756974</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9468712642347186</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.873892810756974</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2154904270957697</v>
       </c>
     </row>
@@ -4141,72 +4069,66 @@
         <v>4.45327070277859e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7867371727336495</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2767665158251824</v>
+        <v>7.039008290411916e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.0009383160343602506</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.039008290411916e-06</v>
+        <v>0.1629919832792955</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0009383160343602506</v>
+        <v>0.02656564899293863</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1629919832792955</v>
+        <v>1.576550048585694</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02656564899293863</v>
+        <v>1.471444354242813</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.489882872874251</v>
+        <v>4.012489127114446</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.471444354242813</v>
+        <v>6.378633649579127e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.012489127114446</v>
+        <v>9416515.267231826</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.378633649579127e-14</v>
+        <v>1.092964961081565e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>9416515.267231826</v>
+        <v>5.655982920537625</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.092964961081565e-05</v>
+        <v>0.0001253112393571856</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.655982920537625</v>
+        <v>8.132642959234602</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001253112393571856</v>
+        <v>1.310535266191061</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.132642959234602</v>
+        <v>0.008288070522001657</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.310535266191061</v>
+        <v>3.045388500704374</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008288070522001657</v>
+        <v>0.9464114204533013</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.045388500704374</v>
+        <v>1.85849233203937</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9464114204533013</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.85849233203937</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2050510783035549</v>
       </c>
     </row>
@@ -4221,72 +4143,66 @@
         <v>4.453211655476565e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.786623612002167</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.2767538528354816</v>
+        <v>7.039035169150568e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.0008208613722940493</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.039035169150568e-06</v>
+        <v>0.1640247443260004</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0008208613722940493</v>
+        <v>0.02690334887445022</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1640247443260004</v>
+        <v>1.571018925086384</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02690334887445022</v>
+        <v>1.471772164104455</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.484719538338048</v>
+        <v>4.071511866976702</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.471772164104455</v>
+        <v>6.195038174317684e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.071511866976702</v>
+        <v>9537107.48456038</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.195038174317684e-14</v>
+        <v>1.070748193125096e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>9537107.48456038</v>
+        <v>5.634784889701377</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.070748193125096e-05</v>
+        <v>0.000127261719255275</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.634784889701377</v>
+        <v>7.334389569243828</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000127261719255275</v>
+        <v>1.371602409166528</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.334389569243828</v>
+        <v>0.006845824069541658</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.371602409166528</v>
+        <v>3.115857283831712</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006845824069541658</v>
+        <v>0.9466486893003653</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.115857283831712</v>
+        <v>1.85077319031721</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9466486893003653</v>
+        <v>32</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.85077319031721</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1922571769900297</v>
       </c>
     </row>
@@ -4301,72 +4217,66 @@
         <v>4.45829812258712e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7867832959208245</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.2817371425590292</v>
+        <v>7.038276081720808e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.002650815890338152</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.038276081720808e-06</v>
+        <v>0.1647251554009694</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.002650815890338152</v>
+        <v>0.02714030695950979</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1647251554009694</v>
+        <v>1.575536266560496</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02714030695950979</v>
+        <v>1.524882874111815</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.490379094362991</v>
+        <v>4.071022671972107</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.524882874111815</v>
+        <v>6.196527119016594e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.071022671972107</v>
+        <v>9260868.441692714</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.196527119016594e-14</v>
+        <v>1.091564306592797e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>9260868.441692714</v>
+        <v>5.314369955566554</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.091564306592797e-05</v>
+        <v>0.0001293371192510088</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.314369955566554</v>
+        <v>7.184781834368591</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001293371192510088</v>
+        <v>1.51289773922298</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.184781834368591</v>
+        <v>0.006676523074163582</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.51289773922298</v>
+        <v>3.143905973272191</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006676523074163582</v>
+        <v>0.9470069665074198</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.143905973272191</v>
+        <v>1.885272606376591</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9470069665074198</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.885272606376591</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.181008886834038</v>
       </c>
     </row>
@@ -4381,72 +4291,66 @@
         <v>4.470348461274659e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.7856369267875489</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2934882541361241</v>
+        <v>7.036619666702425e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.00480963774049048</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.036619666702425e-06</v>
+        <v>0.164961770229355</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.00480963774049048</v>
+        <v>0.02723469961494309</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.164961770229355</v>
+        <v>1.580746788687599</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02723469961494309</v>
+        <v>1.480120559945044</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.497667877464097</v>
+        <v>4.064947487478596</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.480120559945044</v>
+        <v>6.215062746549882e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.064947487478596</v>
+        <v>9216209.314304888</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.215062746549882e-14</v>
+        <v>1.100623573091345e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>9216209.314304888</v>
+        <v>5.278981948860868</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.100623573091345e-05</v>
+        <v>0.0001218846566402739</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.278981948860868</v>
+        <v>8.42363892938932</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001218846566402739</v>
+        <v>1.172356756293293</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.42363892938932</v>
+        <v>0.008648654024464804</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.172356756293293</v>
+        <v>3.078115757179755</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008648654024464804</v>
+        <v>0.9469956230170102</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.078115757179755</v>
+        <v>1.912759886731552</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9469956230170102</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.912759886731552</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1921858836922067</v>
       </c>
     </row>
@@ -4461,72 +4365,66 @@
         <v>4.489451400915759e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7820612609663888</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.3115178227592428</v>
+        <v>7.034157145394909e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.005849703417589666</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.034157145394909e-06</v>
+        <v>0.1646280958375351</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.005849703417589666</v>
+        <v>0.02713557579573671</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1646280958375351</v>
+        <v>1.584087242780261</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02713557579573671</v>
+        <v>1.465096900578423</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.500665657361072</v>
+        <v>4.078610049683429</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.465096900578423</v>
+        <v>6.173493948323301e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.078610049683429</v>
+        <v>9444365.393523907</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.173493948323301e-14</v>
+        <v>1.077935431245331e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>9444365.393523907</v>
+        <v>5.506511988713581</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.077935431245331e-05</v>
+        <v>0.0001232567355386314</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.506511988713581</v>
+        <v>8.82384465520613</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001232567355386314</v>
+        <v>1.138470447818172</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.82384465520613</v>
+        <v>0.009596798332644926</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.138470447818172</v>
+        <v>2.965194548203241</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009596798332644926</v>
+        <v>0.9474872885767811</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.965194548203241</v>
+        <v>1.867157912079886</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9474872885767811</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.867157912079886</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2004148913880764</v>
       </c>
     </row>
@@ -4541,72 +4439,66 @@
         <v>4.510913515115494e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7754343683832394</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3307843370269952</v>
+        <v>7.031636332055541e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.005192480071365765</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.031636332055541e-06</v>
+        <v>0.1634867687343241</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.005192480071365765</v>
+        <v>0.02675348025361263</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1634867687343241</v>
+        <v>1.58197274355989</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02675348025361263</v>
+        <v>1.444550999942232</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.499867132726922</v>
+        <v>4.112980146905297</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.444550999942232</v>
+        <v>6.070747509423221e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.112980146905297</v>
+        <v>9505166.517392348</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.070747509423221e-14</v>
+        <v>1.071904934394083e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>9505166.517392348</v>
+        <v>5.484810526005615</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.071904934394083e-05</v>
+        <v>0.0001260811367990655</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.484810526005615</v>
+        <v>8.072365222948823</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001260811367990655</v>
+        <v>1.230562915757995</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.072365222948823</v>
+        <v>0.008215835240629066</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.230562915757995</v>
+        <v>3.064825694542003</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008215835240629066</v>
+        <v>0.9495621175275399</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.064825694542003</v>
+        <v>1.877360007075843</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9495621175275399</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.877360007075843</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1941512343056205</v>
       </c>
     </row>
@@ -4621,72 +4513,66 @@
         <v>4.5301418054241e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7671995129926237</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.3467912117245944</v>
+        <v>7.029586140140636e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.003834673119322606</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.029586140140636e-06</v>
+        <v>0.162086904311086</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.003834673119322606</v>
+        <v>0.02628574433326845</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.162086904311086</v>
+        <v>1.60142725445559</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02628574433326845</v>
+        <v>1.497530430836446</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.522633719523865</v>
+        <v>4.143069165079943</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.497530430836446</v>
+        <v>5.982890159733547e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.143069165079943</v>
+        <v>9671840.102175541</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.982890159733547e-14</v>
+        <v>1.061593020899416e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>9671840.102175541</v>
+        <v>5.596664144741387</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.061593020899416e-05</v>
+        <v>0.0001335950653290467</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5.596664144741387</v>
+        <v>7.846590404877615</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001335950653290467</v>
+        <v>1.330080653804339</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.846590404877615</v>
+        <v>0.008225312036522098</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.330080653804339</v>
+        <v>3.031840685224759</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008225312036522098</v>
+        <v>0.9493861368189939</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.031840685224759</v>
+        <v>1.872047339577391</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9493861368189939</v>
+        <v>10</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.872047339577391</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1874136672502977</v>
       </c>
     </row>
@@ -4701,72 +4587,66 @@
         <v>4.543879366527071e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7600923989970524</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.3572661467267828</v>
+        <v>7.028226979578345e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>-0.002100425524364905</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.028226979578345e-06</v>
+        <v>0.1608934162142147</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.002100425524364905</v>
+        <v>0.02589021459567594</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1608934162142147</v>
+        <v>1.616225857575049</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02589021459567594</v>
+        <v>1.50940163974706</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.538055370107235</v>
+        <v>4.07380450545736</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.50940163974706</v>
+        <v>6.188067301591111e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.07380450545736</v>
+        <v>9384328.373968409</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.188067301591111e-14</v>
+        <v>1.103066945015341e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>9384328.373968409</v>
+        <v>5.449559775168224</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.103066945015341e-05</v>
+        <v>0.00014581181448902</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.449559775168224</v>
+        <v>8.04392812915188</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.00014581181448902</v>
+        <v>1.320309579093154</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.04392812915188</v>
+        <v>0.009434721341016753</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.320309579093154</v>
+        <v>2.924401229479817</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009434721341016753</v>
+        <v>0.9509339790148994</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.924401229479817</v>
+        <v>1.852385699932869</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9509339790148994</v>
+        <v>2</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.852385699932869</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1725360358325493</v>
       </c>
     </row>
@@ -4781,72 +4661,66 @@
         <v>4.548762354758521e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.7572944546358391</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.3607257404887512</v>
+        <v>7.027767095519807e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.0001624880602997644</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.027767095519807e-06</v>
+        <v>0.160128760459417</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0001624880602997644</v>
+        <v>0.02564038064703689</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.160128760459417</v>
+        <v>1.635768936185021</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02564038064703689</v>
+        <v>1.437640859849341</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.56097229579704</v>
+        <v>4.020480609703969</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.437640859849341</v>
+        <v>6.353301315650231e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.020480609703969</v>
+        <v>9112086.110957619</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.353301315650231e-14</v>
+        <v>1.140225941554313e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>9112086.110957619</v>
+        <v>5.275153280262241</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.140225941554313e-05</v>
+        <v>0.0001613681234632435</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>5.275153280262241</v>
+        <v>9.643578553643225</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001613681234632435</v>
+        <v>1.170004416539631</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.643578553643225</v>
+        <v>0.01500701074796986</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.170004416539631</v>
+        <v>2.686895361845217</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01500701074796986</v>
+        <v>0.9517257126656509</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.686895361845217</v>
+        <v>1.859134796571284</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9517257126656509</v>
+        <v>2</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.859134796571284</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.164895375976691</v>
       </c>
     </row>
@@ -4861,72 +4735,66 @@
         <v>4.541194179295577e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.761999314981004</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3557574681641529</v>
+        <v>7.028459403724126e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.002878931410137795</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.028459403724126e-06</v>
+        <v>0.1601318081082029</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.002878931410137795</v>
+        <v>0.0256497689024047</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1601318081082029</v>
+        <v>1.570145015574322</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0256497689024047</v>
+        <v>1.406616284027782</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.50307841115052</v>
+        <v>4.138192578274017</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.406616284027782</v>
+        <v>5.996999350500381e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.138192578274017</v>
+        <v>10084793.02815125</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.996999350500381e-14</v>
+        <v>9.752902979735675e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>10084793.02815125</v>
+        <v>6.099131273165341</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.752902979735675e-06</v>
+        <v>0.0001844189865316427</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>6.099131273165341</v>
+        <v>12.4066866280718</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001844189865316427</v>
+        <v>1.007854800521481</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.4066866280718</v>
+        <v>0.02838685351573519</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.007854800521481</v>
+        <v>2.404317810530331</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02838685351573519</v>
+        <v>0.9421128265464469</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.404317810530331</v>
+        <v>1.89340427186227</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9421128265464469</v>
+        <v>3</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.89340427186227</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1655187882284445</v>
       </c>
     </row>
@@ -4941,72 +4809,66 @@
         <v>4.52222228555229e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7744854481510676</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.3440148485337335</v>
+        <v>7.030159678898948e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.004240704377407994</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.030159678898948e-06</v>
+        <v>0.1605576506655955</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.004240704377407994</v>
+        <v>0.02579640489786094</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1605576506655955</v>
+        <v>1.642340191921495</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02579640489786094</v>
+        <v>1.461799630630259</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.57362426679286</v>
+        <v>3.399426255750701</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.461799630630259</v>
+        <v>6.727280304748157e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.399426255750701</v>
+        <v>8115791.581818012</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>6.727280304748157e-14</v>
+        <v>1.308834235765889e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>8115791.581818012</v>
+        <v>4.430995356406952</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.308834235765889e-05</v>
+        <v>0.0002755163710328354</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4.430995356406952</v>
+        <v>10.98943771379654</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002755163710328354</v>
+        <v>1.606085240199859</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.98943771379654</v>
+        <v>0.03327348981127919</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.606085240199859</v>
+        <v>2.553992756641202</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03327348981127919</v>
+        <v>0.9507977668012447</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.553992756641202</v>
+        <v>1.857028877440187</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9507977668012447</v>
+        <v>2</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.857028877440187</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1475374037859828</v>
       </c>
     </row>
@@ -5021,72 +4883,66 @@
         <v>4.500566182805548e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.7904229733536259</v>
+        <v>1.645231916825993e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.3324242517042633</v>
+        <v>7.032010245508456e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.645231916825993e-06</v>
+        <v>0.003715980455728262</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.032010245508456e-06</v>
+        <v>0.1615502597503466</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.003715980455728262</v>
+        <v>0.02611167044694505</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1615502597503466</v>
+        <v>1.614538109676264</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02611167044694505</v>
+        <v>1.428943293373777</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.538757293224462</v>
+        <v>3.871813588462854</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.428943293373777</v>
+        <v>5.046788670255331e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.871813588462854</v>
+        <v>10832883.38909973</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.046788670255331e-14</v>
+        <v>9.72253305088561e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>10832883.38909973</v>
+        <v>5.922475268142125</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.72253305088561e-06</v>
+        <v>0.0001814674080731611</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>5.922475268142125</v>
+        <v>9.601789110774879</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001814674080731611</v>
+        <v>1.763040724339495</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.601789110774879</v>
+        <v>0.01673027048255011</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.763040724339495</v>
+        <v>3.160141950699237</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01673027048255011</v>
+        <v>0.9496040940183514</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.160141950699237</v>
+        <v>1.842503505560769</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9496040940183514</v>
+        <v>2</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.842503505560769</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1847286013283654</v>
       </c>
     </row>
@@ -5101,72 +4957,66 @@
         <v>4.483870213112834e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8041296838768507</v>
+        <v>1.643677134726174e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.3251979737382311</v>
+        <v>7.033362514289535e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.643677134726174e-06</v>
+        <v>0.002157568782886664</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.033362514289535e-06</v>
+        <v>0.1626752244906815</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.002157568782886664</v>
+        <v>0.02646722725615141</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1626752244906815</v>
+        <v>1.632668064102255</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02646722725615141</v>
+        <v>1.53653268446314</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.560817914261596</v>
+        <v>4.334268840015161</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.53653268446314</v>
+        <v>3.378901355444097e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.334268840015161</v>
+        <v>15291207.37897099</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.378901355444097e-14</v>
+        <v>6.809293191297007e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>15291207.37897099</v>
+        <v>7.900581719065433</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.809293191297007e-06</v>
+        <v>0.0001106132322824124</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.900581719065433</v>
+        <v>8.829114410639374</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001106132322824124</v>
+        <v>1.217322240218411</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.829114410639374</v>
+        <v>0.008622662196711451</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.217322240218411</v>
+        <v>3.253706167318133</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008622662196711451</v>
+        <v>0.9499789367899617</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.253706167318133</v>
+        <v>1.822017467396893</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9499789367899617</v>
+        <v>7</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.822017467396893</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2184999920596797</v>
       </c>
     </row>
@@ -5181,72 +5031,66 @@
         <v>4.477751579242699e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.8094794708581484</v>
+        <v>1.627267278416895e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.3229851300602529</v>
+        <v>7.033842039790275e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.627267278416895e-06</v>
+        <v>-0.000146163584738182</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.033842039790275e-06</v>
+        <v>0.1632396846897135</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.000146163584738182</v>
+        <v>0.02664636522762052</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1632396846897135</v>
+        <v>1.66333256546277</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02664636522762052</v>
+        <v>1.578092743687161</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.59799225784384</v>
+        <v>4.491354612726148</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.578092743687161</v>
+        <v>3.146679512095423e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.491354612726148</v>
+        <v>16226053.54848866</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.146679512095423e-14</v>
+        <v>6.491426675844048e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>16226053.54848866</v>
+        <v>8.284729292994836</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.491426675844048e-06</v>
+        <v>0.0001090348661187118</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8.284729292994836</v>
+        <v>8.248070948584283</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001090348661187118</v>
+        <v>1.287324018945873</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.248070948584283</v>
+        <v>0.007417715472212654</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.287324018945873</v>
+        <v>3.147692227246329</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.007417715472212654</v>
+        <v>0.9519100669936886</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.147692227246329</v>
+        <v>1.833981871110152</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9519100669936886</v>
+        <v>7</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.833981871110152</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.225055731813176</v>
       </c>
     </row>
@@ -5261,72 +5105,66 @@
         <v>4.487045297194599e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.8012714472898105</v>
+        <v>1.663743959564856e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.3261761345873504</v>
+        <v>7.03312035380902e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.663743959564856e-06</v>
+        <v>-0.003166903531377617</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.03312035380902e-06</v>
+        <v>0.1626868841233008</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.003166903531377617</v>
+        <v>0.02647580229841778</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1626868841233008</v>
+        <v>1.669818976459352</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02647580229841778</v>
+        <v>1.524848404898196</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.607901097089002</v>
+        <v>4.489773816114775</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.524848404898196</v>
+        <v>3.148895719950369e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.489773816114775</v>
+        <v>16253186.52870499</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.148895719950369e-14</v>
+        <v>6.506213489613632e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>16253186.52870499</v>
+        <v>8.318314145376924</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>6.506213489613632e-06</v>
+        <v>0.000108853669049424</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8.318314145376924</v>
+        <v>7.457550452251742</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000108853669049424</v>
+        <v>1.32505726103162</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.457550452251742</v>
+        <v>0.006053903199106023</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.32505726103162</v>
+        <v>3.220870544447515</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.006053903199106023</v>
+        <v>0.9537131947369162</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.220870544447515</v>
+        <v>1.817353022092393</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9537131947369162</v>
+        <v>6</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.817353022092393</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2211052904813634</v>
       </c>
     </row>
@@ -5341,72 +5179,66 @@
         <v>4.513301218833075e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.7790510800687198</v>
+        <v>1.693019390605798e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.3360697961324055</v>
+        <v>7.031042934584832e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.693019390605798e-06</v>
+        <v>-0.005872361385556907</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.031042934584832e-06</v>
+        <v>0.1613714006228971</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.005872361385556907</v>
+        <v>0.0260746557730258</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1613714006228971</v>
+        <v>1.658590401503931</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0260746557730258</v>
+        <v>1.538489910207568</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.600190245238136</v>
+        <v>4.475004817359042</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.538489910207568</v>
+        <v>3.169714816928951e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.475004817359042</v>
+        <v>16010398.07300627</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.169714816928951e-14</v>
+        <v>6.566685530682487e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16010398.07300627</v>
+        <v>8.125020214775462</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.566685530682487e-06</v>
+        <v>0.0001114594580895571</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.125020214775462</v>
+        <v>6.542594553349826</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001114594580895571</v>
+        <v>1.458714054749443</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.542594553349826</v>
+        <v>0.00477108268057118</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.458714054749443</v>
+        <v>3.315250871221461</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00477108268057118</v>
+        <v>0.954347855831861</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.315250871221461</v>
+        <v>1.829080643523568</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.954347855831861</v>
+        <v>6</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.829080643523568</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2062429175389895</v>
       </c>
     </row>
@@ -5421,72 +5253,66 @@
         <v>4.55166580317005e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.7484127899245948</v>
+        <v>1.714970400427962e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.3517275488167821</v>
+        <v>7.027944797919115e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.714970400427962e-06</v>
+        <v>-0.007756463609234954</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.027944797919115e-06</v>
+        <v>0.1598103250993527</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.007756463609234954</v>
+        <v>0.02559902482657228</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1598103250993527</v>
+        <v>1.66032070458263</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02559902482657228</v>
+        <v>1.522212532685814</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.6041323889926</v>
+        <v>4.471933182925094</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.522212532685814</v>
+        <v>3.174070673123661e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.471933182925094</v>
+        <v>16515087.01920977</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.174070673123661e-14</v>
+        <v>6.399078318943526e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>16515087.01920977</v>
+        <v>8.657217429862204</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.399078318943526e-06</v>
+        <v>0.0001198899182694756</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.657217429862204</v>
+        <v>7.275412697330268</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001198899182694756</v>
+        <v>1.495173262256632</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.275412697330268</v>
+        <v>0.006345968784556258</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.495173262256632</v>
+        <v>3.271359942031745</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.006345968784556258</v>
+        <v>0.953938912884171</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.271359942031745</v>
+        <v>1.883934917710201</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.953938912884171</v>
+        <v>6</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.883934917710201</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1933013050035553</v>
       </c>
     </row>
@@ -5501,72 +5327,66 @@
         <v>4.600042520256219e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.7129151618270422</v>
+        <v>1.732859631476385e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.3735118852421229</v>
+        <v>7.023915732195815e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.732859631476385e-06</v>
+        <v>-0.009941319393772843</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.023915732195815e-06</v>
+        <v>0.15757386385324</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.009941319393772843</v>
+        <v>0.02492735842383824</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.15757386385324</v>
+        <v>1.661167819211723</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02492735842383824</v>
+        <v>1.523483955288772</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.60601922668583</v>
+        <v>4.472780293778452</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.523483955288772</v>
+        <v>3.172868496883515e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.472780293778452</v>
+        <v>17085106.09984161</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.172868496883515e-14</v>
+        <v>6.294664473508425e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>17085106.09984161</v>
+        <v>9.261630125836087</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.294664473508425e-06</v>
+        <v>0.000119296466652638</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9.261630125836087</v>
+        <v>9.095358019872815</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000119296466652638</v>
+        <v>1.212908457751357</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.095358019872815</v>
+        <v>0.009868864326843274</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.212908457751357</v>
+        <v>3.138185408212887</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009868864326843274</v>
+        <v>0.9533186014042949</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.138185408212887</v>
+        <v>1.835602874012477</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9533186014042949</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.835602874012477</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.201315166955864</v>
       </c>
     </row>
@@ -5581,72 +5401,66 @@
         <v>4.658282301624077e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.6757358584352988</v>
+        <v>1.74268199329987e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.4035096328607932</v>
+        <v>7.018791807203014e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.74268199329987e-06</v>
+        <v>-0.01204410013250385</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.018791807203014e-06</v>
+        <v>0.1547891526600048</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.01204410013250385</v>
+        <v>0.02410411220162796</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1547891526600048</v>
+        <v>1.662398361091345</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02410411220162796</v>
+        <v>1.517412577729652</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.60692774872896</v>
+        <v>4.457665623229571</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.517412577729652</v>
+        <v>3.194421556307166e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.457665623229571</v>
+        <v>16983733.30260675</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.194421556307166e-14</v>
+        <v>6.32483716054644e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>16983733.30260675</v>
+        <v>9.214219436148062</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.32483716054644e-06</v>
+        <v>0.0001125409289944893</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>9.214219436148062</v>
+        <v>8.712120375473338</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001125409289944893</v>
+        <v>1.225145180799039</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.712120375473338</v>
+        <v>0.00854197371493969</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.225145180799039</v>
+        <v>3.120133907031171</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.00854197371493969</v>
+        <v>0.9526159959482925</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.120133907031171</v>
+        <v>1.768237118789259</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9526159959482925</v>
+        <v>6</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.768237118789259</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2138660950279733</v>
       </c>
     </row>
@@ -5661,72 +5475,66 @@
         <v>4.721971806117277e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.6419073725868296</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.4403698871457595</v>
+        <v>7.012806555555309e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01337420703564809</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.012806555555309e-06</v>
+        <v>0.1520987775282837</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.01337420703564809</v>
+        <v>0.02331227376567764</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1520987775282837</v>
+        <v>1.657843314230212</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02331227376567764</v>
+        <v>1.50606994965246</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.603240700989441</v>
+        <v>4.419635751312124</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.50606994965246</v>
+        <v>3.249632490864714e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.419635751312124</v>
+        <v>16495905.37555793</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.249632490864714e-14</v>
+        <v>6.48110017121555e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>16495905.37555793</v>
+        <v>8.842734013084717</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.48110017121555e-06</v>
+        <v>0.000108235169920812</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>8.842734013084717</v>
+        <v>7.256808029815432</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.000108235169920812</v>
+        <v>1.294517748936284</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.256808029815432</v>
+        <v>0.005699800725410329</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.294517748936284</v>
+        <v>3.26641725056282</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.005699800725410329</v>
+        <v>0.9498430124752948</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.26641725056282</v>
+        <v>1.816368108100922</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9498430124752948</v>
+        <v>6</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.816368108100922</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2155703281991365</v>
       </c>
     </row>
@@ -5741,72 +5549,66 @@
         <v>4.78619154498318e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6156541138845421</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.481691263661002</v>
+        <v>7.006252979337564e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01393636113554718</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.006252979337564e-06</v>
+        <v>0.1496845818673081</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01393636113554718</v>
+        <v>0.02259926778724619</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1496845818673081</v>
+        <v>1.658279317208005</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02259926778724619</v>
+        <v>1.499106569807449</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.602443850043558</v>
+        <v>4.326997257300164</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.499106569807449</v>
+        <v>3.390267485034829e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.326997257300164</v>
+        <v>15857604.12815407</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.390267485034829e-14</v>
+        <v>6.749365546867454e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>15857604.12815407</v>
+        <v>8.525288961951219</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.749365546867454e-06</v>
+        <v>0.0001100276223000428</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>8.525288961951219</v>
+        <v>6.810941801966692</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001100276223000428</v>
+        <v>1.368051808379154</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>6.810941801966692</v>
+        <v>0.005104063474169728</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.368051808379154</v>
+        <v>3.27705205526469</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.005104063474169728</v>
+        <v>0.9474000714672601</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.27705205526469</v>
+        <v>1.853751509775302</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9474000714672601</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.853751509775302</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2152894470364156</v>
       </c>
     </row>
@@ -5821,72 +5623,66 @@
         <v>4.844607098814101e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5994330055561093</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.523033003368119</v>
+        <v>6.999716774377336e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01298497805916156</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.999716774377336e-06</v>
+        <v>0.148292543609192</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.01298497805916156</v>
+        <v>0.02215839911055477</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.148292543609192</v>
+        <v>1.65494403978491</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02215839911055477</v>
+        <v>1.483868658694768</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.596706316114055</v>
+        <v>4.322717496795212</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.483868658694768</v>
+        <v>3.648477100554124e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.322717496795212</v>
+        <v>14623941.26859142</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.648477100554124e-14</v>
+        <v>7.285881115950561e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>14623941.26859142</v>
+        <v>7.802620657743121</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>7.285881115950561e-06</v>
+        <v>0.0001165627278756118</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>7.802620657743121</v>
+        <v>7.196858736604601</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001165627278756118</v>
+        <v>1.335139814881775</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.196858736604601</v>
+        <v>0.006037340342341652</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.335139814881775</v>
+        <v>3.214463098034186</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.006037340342341652</v>
+        <v>0.9452090698376313</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.214463098034186</v>
+        <v>1.809692883961207</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9452090698376313</v>
+        <v>6</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.809692883961207</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2083026913229334</v>
       </c>
     </row>
@@ -5901,72 +5697,66 @@
         <v>4.892114415198462e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5936240941084822</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.5596263200604086</v>
+        <v>6.993757453249175e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01155842539014549</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.993757453249175e-06</v>
+        <v>0.1477184323883596</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.01155842539014549</v>
+        <v>0.02195318131914353</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1477184323883596</v>
+        <v>1.578281070314377</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02195318131914353</v>
+        <v>1.472300966350171</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.517293358880562</v>
+        <v>4.236881194748236</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.472300966350171</v>
+        <v>3.798821046335372e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.236881194748236</v>
+        <v>14537665.59679904</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.798821046335372e-14</v>
+        <v>7.015260007812877e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>14537665.59679904</v>
+        <v>8.028569753621721</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>7.015260007812877e-06</v>
+        <v>0.0001396811351392666</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>8.028569753621721</v>
+        <v>9.895468659339656</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001396811351392666</v>
+        <v>1.182613480241001</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.895468659339656</v>
+        <v>0.01367761865549763</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.182613480241001</v>
+        <v>2.900179332203333</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01367761865549763</v>
+        <v>0.9386493042966775</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.900179332203333</v>
+        <v>1.862744343231522</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9386493042966775</v>
+        <v>7</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.862744343231522</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2035791834050844</v>
       </c>
     </row>
@@ -5981,72 +5771,66 @@
         <v>4.930721841308143e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5961891497037001</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.5900743200826257</v>
+        <v>6.988151648798131e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01146472121005713</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.988151648798131e-06</v>
+        <v>0.1465718483035905</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.01146472121005713</v>
+        <v>0.02161394838272583</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1465718483035905</v>
+        <v>1.55283905184099</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02161394838272583</v>
+        <v>1.454247159208562</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.489756852755312</v>
+        <v>4.106920222201348</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.454247159208562</v>
+        <v>4.043047787252663e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.106920222201348</v>
+        <v>13810509.67919432</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>4.043047787252663e-14</v>
+        <v>7.316393094319276e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>13810509.67919432</v>
+        <v>7.711312225044295</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>7.316393094319276e-06</v>
+        <v>0.0001831275398746361</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>7.711312225044295</v>
+        <v>11.30382006717527</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001831275398746361</v>
+        <v>1.169851039234242</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.30382006717527</v>
+        <v>0.02339936828374614</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.169851039234242</v>
+        <v>2.716600573432352</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02339936828374614</v>
+        <v>0.9380963131985502</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.716600573432352</v>
+        <v>1.902729136063143</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9380963131985502</v>
+        <v>7</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.902729136063143</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1878066271330268</v>
       </c>
     </row>
@@ -6061,72 +5845,66 @@
         <v>4.964794218035296e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6047813154611218</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.6152271842575607</v>
+        <v>6.982424162410814e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01163819291089458</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.982424162410814e-06</v>
+        <v>0.1454283667882933</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.01163819291089458</v>
+        <v>0.02128444089029177</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1454283667882933</v>
+        <v>1.612881291074836</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02128444089029177</v>
+        <v>1.500887982883587</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.5496393997531</v>
+        <v>4.219834769416947</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.500887982883587</v>
+        <v>3.829574437178993e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.219834769416947</v>
+        <v>13861234.68652575</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.829574437178993e-14</v>
+        <v>7.751450712149629e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>13861234.68652575</v>
+        <v>7.35790792530394</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.751450712149629e-06</v>
+        <v>0.0001602115795555954</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>7.35790792530394</v>
+        <v>8.825771442352689</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001602115795555954</v>
+        <v>1.681171727683046</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.825771442352689</v>
+        <v>0.01247955947743487</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.681171727683046</v>
+        <v>3.1696671598211</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01247955947743487</v>
+        <v>0.9459813094139281</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.1696671598211</v>
+        <v>1.829601596578312</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9459813094139281</v>
+        <v>6</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.829601596578312</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1940607224957039</v>
       </c>
     </row>
@@ -6141,72 +5919,66 @@
         <v>4.995923914452101e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6179605175753774</v>
+        <v>1.743506521181962e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.6352344097489908</v>
+        <v>6.976447864069501e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.743506521181962e-06</v>
+        <v>-0.01260660178926914</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.976447864069501e-06</v>
+        <v>0.1440465300085136</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01260660178926914</v>
+        <v>0.02090748383562576</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1440465300085136</v>
+        <v>1.628829401093601</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02090748383562576</v>
+        <v>1.476833447632591</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.563593490029152</v>
+        <v>4.384213727875725</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.476833447632591</v>
+        <v>2.590702751700782e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.384213727875725</v>
+        <v>20299461.32174667</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.590702751700782e-14</v>
+        <v>5.338165155205858e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>20299461.32174667</v>
+        <v>10.67546038157663</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.338165155205858e-06</v>
+        <v>0.0001133881137943073</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.67546038157663</v>
+        <v>8.104501233017269</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001133881137943073</v>
+        <v>1.371788653303241</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.104501233017269</v>
+        <v>0.00744766470182181</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.371788653303241</v>
+        <v>3.352338803228978</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.00744766470182181</v>
+        <v>0.9478363981939718</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.352338803228978</v>
+        <v>1.809958305112351</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9478363981939718</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.809958305112351</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2203946019437114</v>
       </c>
     </row>
@@ -6583,7 +6355,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606168574097125</v>
+        <v>1.594062643037381</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.728537120003028</v>
@@ -6672,7 +6444,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.589118332552419</v>
+        <v>1.578176501034704</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.79576623325388</v>
@@ -6761,7 +6533,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592699582362321</v>
+        <v>1.577351306720283</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.626875328025465</v>
@@ -6850,7 +6622,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608329217777593</v>
+        <v>1.589394877192365</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.721488230497233</v>
@@ -6939,7 +6711,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.611134198748405</v>
+        <v>1.592580382820174</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.750795701836343</v>
@@ -7028,7 +6800,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.621994264249857</v>
+        <v>1.596408411108291</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.740451511635618</v>
@@ -7117,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.597018592883644</v>
+        <v>1.568220442062864</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.064930689754445</v>
@@ -7206,7 +6978,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.609520152599245</v>
+        <v>1.575820577403323</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.983404241997342</v>
@@ -7295,7 +7067,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591846321832785</v>
+        <v>1.554462817324385</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.822252655556645</v>
@@ -7384,7 +7156,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.592826193056423</v>
+        <v>1.549888315339004</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.59940935472703</v>
@@ -7473,7 +7245,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537175213295046</v>
+        <v>1.507034057356441</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.103330433732952</v>
@@ -7562,7 +7334,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492156659992331</v>
+        <v>1.469183681711063</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.162220857649594</v>
@@ -7651,7 +7423,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.491427256019582</v>
+        <v>1.462058369627813</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.139629501249901</v>
@@ -7740,7 +7512,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498478023725411</v>
+        <v>1.460781023433161</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.128198155582718</v>
@@ -7829,7 +7601,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484767577711123</v>
+        <v>1.447821175776718</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.15263105801956</v>
@@ -7918,7 +7690,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485742758022278</v>
+        <v>1.448318557219044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.085093178454267</v>
@@ -8007,7 +7779,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.507710785028136</v>
+        <v>1.466242404239593</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.104801885812693</v>
@@ -8096,7 +7868,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.505755547205496</v>
+        <v>1.467238198690336</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.093836135380097</v>
@@ -8185,7 +7957,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.51449262588561</v>
+        <v>1.473139310444348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.072777014766158</v>
@@ -8274,7 +8046,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.515966764633622</v>
+        <v>1.474119481107257</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.116568767926192</v>
@@ -8363,7 +8135,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.489095512564739</v>
+        <v>1.456883758789884</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.99620162637902</v>
@@ -8452,7 +8224,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.438415988400145</v>
+        <v>1.431423289864901</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.048195847197064</v>
@@ -8541,7 +8313,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.420728324483115</v>
+        <v>1.429060538175406</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.010263749334564</v>
@@ -8630,7 +8402,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.366698180344411</v>
+        <v>1.379316876120048</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.105547102323366</v>
@@ -8719,7 +8491,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.366005357509044</v>
+        <v>1.384804099608286</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.188987830754883</v>
@@ -8808,7 +8580,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397454431434361</v>
+        <v>1.415622887875674</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.154433896916014</v>
@@ -8897,7 +8669,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.39015164399066</v>
+        <v>1.4085882690086</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.191245307483901</v>
@@ -8986,7 +8758,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.37939346074473</v>
+        <v>1.399670804515992</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.176601982912758</v>
@@ -9075,7 +8847,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.372868079109527</v>
+        <v>1.389069167675147</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.216144594076393</v>
@@ -9164,7 +8936,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.341947112675657</v>
+        <v>1.362787849030267</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.23634587158245</v>
@@ -9253,7 +9025,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.335214621582849</v>
+        <v>1.350171036418906</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.24873364644993</v>
@@ -9342,7 +9114,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.333736012080742</v>
+        <v>1.345379219830154</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.230243030405889</v>
@@ -9431,7 +9203,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.328551255918086</v>
+        <v>1.342155100081161</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.25628297104426</v>
@@ -9520,7 +9292,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.328789099498435</v>
+        <v>1.340712681425808</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.262927749556803</v>
@@ -9609,7 +9381,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.3339565375917</v>
+        <v>1.344346173963077</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.290081126957132</v>
@@ -9698,7 +9470,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.346241474136129</v>
+        <v>1.350956687522473</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.914741918998257</v>
@@ -9787,7 +9559,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.364556237690385</v>
+        <v>1.36009251710966</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.175267595875211</v>
@@ -9876,7 +9648,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.372042673354051</v>
+        <v>1.36182765464258</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.131114549327591</v>
@@ -9965,7 +9737,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.442214416885106</v>
+        <v>1.421805041894324</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.922434284736246</v>
@@ -10054,7 +9826,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451586364331446</v>
+        <v>1.421266230171951</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.153168995442816</v>
@@ -10143,7 +9915,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.455017809247001</v>
+        <v>1.416957510028711</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.185345547652056</v>
@@ -10232,7 +10004,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.412714145410064</v>
+        <v>1.372524494889106</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.866816570824576</v>
@@ -10321,7 +10093,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.374773693134785</v>
+        <v>1.350574498895148</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.830884664905162</v>
@@ -10410,7 +10182,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.413248562619338</v>
+        <v>1.383585533216023</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.668768625187163</v>
@@ -10499,7 +10271,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.432530217320969</v>
+        <v>1.398235499656044</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.836143467477843</v>
@@ -10588,7 +10360,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441205888951549</v>
+        <v>1.403984916707648</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.874114212730233</v>
@@ -10677,7 +10449,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.455901822555677</v>
+        <v>1.418741181009423</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.793390855196959</v>
@@ -10766,7 +10538,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.445719170766997</v>
+        <v>1.409126302023885</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.837548885640939</v>
@@ -10855,7 +10627,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.405396824342721</v>
+        <v>1.366756839155291</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.859529994898252</v>
@@ -10944,7 +10716,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.308852176296544</v>
+        <v>1.286674912754783</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.855945780970974</v>
@@ -11033,7 +10805,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.306635968021229</v>
+        <v>1.287905167722996</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.849398678101445</v>
@@ -11122,7 +10894,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.308538196361113</v>
+        <v>1.287420258388902</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.850414968908353</v>
@@ -11211,7 +10983,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.313737743695102</v>
+        <v>1.287369583719559</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.859630654698938</v>
@@ -11300,7 +11072,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.312271885920177</v>
+        <v>1.283872052045434</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.846212242973122</v>
@@ -11389,7 +11161,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.304154044618695</v>
+        <v>1.278593647723903</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.847484384485551</v>
@@ -11478,7 +11250,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.300372224443707</v>
+        <v>1.275226590088154</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.858290703934227</v>
@@ -11567,7 +11339,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.341691888738464</v>
+        <v>1.314158125478034</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.7164834526621</v>
@@ -11656,7 +11428,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.367575579749337</v>
+        <v>1.33747847823978</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.774530550647574</v>
@@ -11745,7 +11517,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.362348298100408</v>
+        <v>1.331976379774732</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.780527789398357</v>
@@ -11834,7 +11606,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.36790818091476</v>
+        <v>1.34015774393459</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.797252151908069</v>
@@ -11923,7 +11695,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.360029083558151</v>
+        <v>1.335289162282087</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.769119580729751</v>
@@ -12012,7 +11784,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.36056408999664</v>
+        <v>1.336809135619936</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.770483734184089</v>
@@ -12101,7 +11873,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.372287406116712</v>
+        <v>1.346502690741893</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.796927923584155</v>
@@ -12190,7 +11962,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.481030620950787</v>
+        <v>1.436603264844419</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.592004875147372</v>
@@ -12279,7 +12051,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.611471616323547</v>
+        <v>1.54526222221555</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.496834042531567</v>
@@ -12368,7 +12140,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.627278725043172</v>
+        <v>1.549619999654848</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.658744471793373</v>
@@ -12457,7 +12229,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.613819099179858</v>
+        <v>1.540252230169924</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.697222281133935</v>
@@ -12546,7 +12318,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.613450697521642</v>
+        <v>1.543517313794312</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.530313357273804</v>
@@ -12635,7 +12407,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.610542710655895</v>
+        <v>1.538989613597508</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.777464026300728</v>
@@ -12724,7 +12496,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.636263411796346</v>
+        <v>1.553401240685618</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.772250224546097</v>
@@ -12813,7 +12585,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.640082576646362</v>
+        <v>1.554180874121847</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.639947483212369</v>
@@ -12902,7 +12674,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.67569714359301</v>
+        <v>1.572075212882408</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.990138388167403</v>
@@ -12991,7 +12763,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.64680236339226</v>
+        <v>1.554725900139313</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.746974550687047</v>
@@ -13080,7 +12852,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.641978825674958</v>
+        <v>1.549452695270424</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.707379808802227</v>
@@ -13169,7 +12941,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.633632314559702</v>
+        <v>1.536643557650109</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.701777952954398</v>
@@ -13258,7 +13030,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.653060233073517</v>
+        <v>1.548458388636384</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.708503845552751</v>
@@ -13347,7 +13119,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.630303759528552</v>
+        <v>1.52915668672106</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.617469591597024</v>
@@ -13436,7 +13208,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.625522737117252</v>
+        <v>1.527530441879793</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.753557322953706</v>
@@ -13525,7 +13297,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.627174203101266</v>
+        <v>1.528102960994589</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.771934108894404</v>
@@ -13614,7 +13386,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.620939530932555</v>
+        <v>1.531169502230085</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.725149109712906</v>
@@ -13703,7 +13475,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.615818289954827</v>
+        <v>1.524281202371155</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.692508080769816</v>
@@ -13989,7 +13761,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.741455725424031</v>
+        <v>1.69589850877953</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.014441934869397</v>
@@ -14078,7 +13850,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.733796695618566</v>
+        <v>1.685497650521427</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.048417447289416</v>
@@ -14167,7 +13939,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.740958288860676</v>
+        <v>1.687063455639993</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856768700980705</v>
@@ -14256,7 +14028,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.735700364110454</v>
+        <v>1.678959407856513</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.125415166355985</v>
@@ -14345,7 +14117,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.737093419860954</v>
+        <v>1.676572150175712</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.819067348804026</v>
@@ -14434,7 +14206,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.737964949187662</v>
+        <v>1.665720280278835</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.928956686253007</v>
@@ -14523,7 +14295,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.727225447439722</v>
+        <v>1.642347282501885</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.200621343645219</v>
@@ -14612,7 +14384,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.734343509267681</v>
+        <v>1.632264213892737</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.315731598271181</v>
@@ -14701,7 +14473,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.713591137765075</v>
+        <v>1.60435153076504</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.529450599128039</v>
@@ -14790,7 +14562,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.695356401997665</v>
+        <v>1.583984125305278</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.973488514982054</v>
@@ -14879,7 +14651,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.685008516219276</v>
+        <v>1.575843903127061</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.65956007036507</v>
@@ -14968,7 +14740,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674604133304217</v>
+        <v>1.557561484186628</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.545574233401727</v>
@@ -15057,7 +14829,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660855730048263</v>
+        <v>1.543330143596741</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.311009472947263</v>
@@ -15146,7 +14918,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.640516408468794</v>
+        <v>1.516727518167489</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.534438619885666</v>
@@ -15235,7 +15007,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635599202559125</v>
+        <v>1.512866140708555</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.387234421911188</v>
@@ -15324,7 +15096,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637921931672673</v>
+        <v>1.516241219552805</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.042430954890934</v>
@@ -15413,7 +15185,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635869501629118</v>
+        <v>1.511415505346807</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.542766618729916</v>
@@ -15502,7 +15274,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616696802994903</v>
+        <v>1.493984906227755</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.146007988122557</v>
@@ -15591,7 +15363,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625944241374166</v>
+        <v>1.50114483452102</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.265083344348805</v>
@@ -15680,7 +15452,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636497506319135</v>
+        <v>1.513567778737234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.297929606216634</v>
@@ -15769,7 +15541,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642037836630443</v>
+        <v>1.521422138316713</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.486594937947356</v>
@@ -15858,7 +15630,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.596484957359051</v>
+        <v>1.522275776545003</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.29838621605761</v>
@@ -15947,7 +15719,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584244494540233</v>
+        <v>1.535462759661806</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.365938337009855</v>
@@ -16036,7 +15808,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523915765343516</v>
+        <v>1.484778710615032</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.179079114153487</v>
@@ -16125,7 +15897,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.523082119599201</v>
+        <v>1.499138994821918</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.198289088776487</v>
@@ -16214,7 +15986,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535013984006943</v>
+        <v>1.513241190620792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.234771901301345</v>
@@ -16303,7 +16075,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52976968470399</v>
+        <v>1.511489313110151</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.256078411217746</v>
@@ -16392,7 +16164,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.527065191160641</v>
+        <v>1.509943949912759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.234627847356528</v>
@@ -16481,7 +16253,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.513957456595738</v>
+        <v>1.498911626583152</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.342340368303365</v>
@@ -16570,7 +16342,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465975542368855</v>
+        <v>1.464349965666285</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.258765751094486</v>
@@ -16659,7 +16431,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468662718508662</v>
+        <v>1.46537801064149</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.304961682328361</v>
@@ -16748,7 +16520,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.476055284713513</v>
+        <v>1.475626677052175</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.244859556374204</v>
@@ -16837,7 +16609,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478327506717149</v>
+        <v>1.480308485239613</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.302291059593847</v>
@@ -16926,7 +16698,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.474230287495332</v>
+        <v>1.473872041249145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.304233669061119</v>
@@ -17015,7 +16787,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.471607377135397</v>
+        <v>1.467589573328181</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.295786587534373</v>
@@ -17104,7 +16876,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473555751343882</v>
+        <v>1.463346793864486</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.051009269141406</v>
@@ -17193,7 +16965,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489533586184086</v>
+        <v>1.461831259902153</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.276075780296717</v>
@@ -17282,7 +17054,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507659150469421</v>
+        <v>1.470594900594541</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.134367247979946</v>
@@ -17371,7 +17143,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.555619611041682</v>
+        <v>1.507940252518</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.1948008791763</v>
@@ -17460,7 +17232,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.548604345140748</v>
+        <v>1.494556107216107</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.139731610345414</v>
@@ -17549,7 +17321,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532756612289469</v>
+        <v>1.470346403499654</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.076542413380559</v>
@@ -17638,7 +17410,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.536303726748116</v>
+        <v>1.473004753003798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.014828678474244</v>
@@ -17727,7 +17499,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548407573115547</v>
+        <v>1.483685979436673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.137194642804777</v>
@@ -17816,7 +17588,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629049658049431</v>
+        <v>1.5352810648068</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.986183872459244</v>
@@ -17905,7 +17677,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.661791521315297</v>
+        <v>1.551572662733731</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.947536162498273</v>
@@ -17994,7 +17766,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.66036832648935</v>
+        <v>1.547460202988243</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.056130013265877</v>
@@ -18083,7 +17855,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.661033743584017</v>
+        <v>1.540848940666596</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.289217649614197</v>
@@ -18172,7 +17944,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.651243373535091</v>
+        <v>1.535000773768686</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.199397948120242</v>
@@ -18261,7 +18033,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622816490114323</v>
+        <v>1.519963056813585</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.796964343653403</v>
@@ -18350,7 +18122,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578706595581199</v>
+        <v>1.497613628506866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.268436044084714</v>
@@ -18439,7 +18211,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584521105054312</v>
+        <v>1.506529049341271</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.40348742744169</v>
@@ -18528,7 +18300,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.581900696375546</v>
+        <v>1.507836913705211</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.313305146963164</v>
@@ -18617,7 +18389,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.574414177168463</v>
+        <v>1.495934986139165</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.251860602209834</v>
@@ -18706,7 +18478,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.577491724282316</v>
+        <v>1.497427639339164</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.29509783691442</v>
@@ -18795,7 +18567,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.575337021420128</v>
+        <v>1.493209451538527</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.304789558733798</v>
@@ -18884,7 +18656,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.579764738308869</v>
+        <v>1.502202163805028</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.187184054937667</v>
@@ -18973,7 +18745,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.583576621658627</v>
+        <v>1.510937137522393</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.172719194738782</v>
@@ -19062,7 +18834,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580454836680647</v>
+        <v>1.502965579046518</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.155167583448317</v>
@@ -19151,7 +18923,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.575160723736882</v>
+        <v>1.502369448920188</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.175704952159822</v>
@@ -19240,7 +19012,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.580383834533571</v>
+        <v>1.510587843707393</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.219638412588468</v>
@@ -19329,7 +19101,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.580511179421243</v>
+        <v>1.51164179000203</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.185757850586906</v>
@@ -19418,7 +19190,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.591393362392444</v>
+        <v>1.5236443134352</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.165813121521171</v>
@@ -19507,7 +19279,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.602561349185865</v>
+        <v>1.529776277234649</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.203436707281901</v>
@@ -19596,7 +19368,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.628955659061595</v>
+        <v>1.536912365808528</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.022753020374414</v>
@@ -19685,7 +19457,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.694429925091153</v>
+        <v>1.575202755917681</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.726630078024507</v>
@@ -19774,7 +19546,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.68771147148653</v>
+        <v>1.557203112468884</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.291745529895282</v>
@@ -19863,7 +19635,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.683663738445751</v>
+        <v>1.552312761613341</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.337359152532014</v>
@@ -19952,7 +19724,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.681911880665622</v>
+        <v>1.550937910943522</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.833311608865773</v>
@@ -20041,7 +19813,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.667936842053577</v>
+        <v>1.537850425531858</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.488811323507293</v>
@@ -20130,7 +19902,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.674536405220139</v>
+        <v>1.540028917407961</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.329329071393877</v>
@@ -20219,7 +19991,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.673512677136821</v>
+        <v>1.530379786764821</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.382980788627567</v>
@@ -20308,7 +20080,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.667024248891757</v>
+        <v>1.525159422479039</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.594096443330287</v>
@@ -20397,7 +20169,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.656506475208407</v>
+        <v>1.52103563314453</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.55782011409064</v>
@@ -20486,7 +20258,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.643095155222335</v>
+        <v>1.503594178837406</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.552045966530112</v>
@@ -20575,7 +20347,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.632307977863179</v>
+        <v>1.48894205857069</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.479991710301317</v>
@@ -20664,7 +20436,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.62898344802586</v>
+        <v>1.486822827725359</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.303536676679989</v>
@@ -20753,7 +20525,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.614698131597487</v>
+        <v>1.469744073546117</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.408126749037055</v>
@@ -20842,7 +20614,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.614488127092204</v>
+        <v>1.47373332967993</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.398443241676411</v>
@@ -20931,7 +20703,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.634970679108926</v>
+        <v>1.49460865468543</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.532260560628488</v>
@@ -21020,7 +20792,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.638319404639749</v>
+        <v>1.505034886400315</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.453828973977092</v>
@@ -21109,7 +20881,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.638422618666614</v>
+        <v>1.501925933652047</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.451570487868055</v>
@@ -21395,7 +21167,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.736815027891417</v>
+        <v>1.641578234264514</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.817800053110842</v>
@@ -21484,7 +21256,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.729688178815924</v>
+        <v>1.62540477731251</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.447324920123301</v>
@@ -21573,7 +21345,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.732523229735848</v>
+        <v>1.625475874067015</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.649095427019433</v>
@@ -21662,7 +21434,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.73649812590669</v>
+        <v>1.624575429363873</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.903147999369122</v>
@@ -21751,7 +21523,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.722041195071955</v>
+        <v>1.613498958600023</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.341406487654002</v>
@@ -21840,7 +21612,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.726446382751853</v>
+        <v>1.617084778362571</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.100888702181042</v>
@@ -21929,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.723995241968222</v>
+        <v>1.6035165372938</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.453020605636657</v>
@@ -22018,7 +21790,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.720775516632881</v>
+        <v>1.594340651289735</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.456982846606134</v>
@@ -22107,7 +21879,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700900925214369</v>
+        <v>1.56880854902521</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.27713110395439</v>
@@ -22196,7 +21968,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692285124696515</v>
+        <v>1.562858916034617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.010754565632069</v>
@@ -22285,7 +22057,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669521507259585</v>
+        <v>1.554812082503048</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.854691401503805</v>
@@ -22374,7 +22146,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652645963597313</v>
+        <v>1.546454775043566</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.824808499489117</v>
@@ -22463,7 +22235,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655905825118362</v>
+        <v>1.549331043393794</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.668970949017754</v>
@@ -22552,7 +22324,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653281021167663</v>
+        <v>1.542321847324767</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.680803179645955</v>
@@ -22641,7 +22413,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.652610744502041</v>
+        <v>1.533308784532909</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.689291296896277</v>
@@ -22730,7 +22502,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666701603866884</v>
+        <v>1.545383928580878</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.829567294610693</v>
@@ -22819,7 +22591,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.67179769638891</v>
+        <v>1.547328737571451</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.75933722332499</v>
@@ -22908,7 +22680,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666102031525038</v>
+        <v>1.53953835369181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.775563235773088</v>
@@ -22997,7 +22769,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665127675128992</v>
+        <v>1.542414500568606</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.71975926930174</v>
@@ -23086,7 +22858,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.670509385397527</v>
+        <v>1.550182784281853</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.574779359009562</v>
@@ -23175,7 +22947,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.680138927334023</v>
+        <v>1.553033322595864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.277237757264918</v>
@@ -23264,7 +23036,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.599144935317994</v>
+        <v>1.532169483349471</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.081225747096117</v>
@@ -23353,7 +23125,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586903552576629</v>
+        <v>1.542554060878485</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.208335713870917</v>
@@ -23442,7 +23214,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.52005790130697</v>
+        <v>1.49122810063151</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.161211006851468</v>
@@ -23531,7 +23303,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516883771997273</v>
+        <v>1.500248124853719</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.199592549989025</v>
@@ -23620,7 +23392,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541990946237207</v>
+        <v>1.521209924930114</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.255431172250496</v>
@@ -23709,7 +23481,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538880918057166</v>
+        <v>1.517008355419452</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.243511176530322</v>
@@ -23798,7 +23570,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.530235963935007</v>
+        <v>1.512780589638355</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.268991327861408</v>
@@ -23887,7 +23659,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518528985764262</v>
+        <v>1.499606620516362</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.291347651511593</v>
@@ -23976,7 +23748,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.470128725402913</v>
+        <v>1.469018612239599</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.295632722794827</v>
@@ -24065,7 +23837,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468828608418917</v>
+        <v>1.466420967746126</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.322759795444203</v>
@@ -24154,7 +23926,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470814537812342</v>
+        <v>1.46558262643472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.316848505604646</v>
@@ -24243,7 +24015,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472066156944237</v>
+        <v>1.470552011114719</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.271857568896915</v>
@@ -24332,7 +24104,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469835191484863</v>
+        <v>1.466045669743468</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.272561008382985</v>
@@ -24421,7 +24193,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.4699417935108</v>
+        <v>1.464371592825386</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.300414225519708</v>
@@ -24510,7 +24282,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467181849883744</v>
+        <v>1.458032314139777</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.119067467838024</v>
@@ -24599,7 +24371,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48647426182419</v>
+        <v>1.462763705545155</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.222352279919393</v>
@@ -24688,7 +24460,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499419691945486</v>
+        <v>1.4664643632516</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.048984766036572</v>
@@ -24777,7 +24549,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564399520691294</v>
+        <v>1.517809742848068</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.187540543964325</v>
@@ -24866,7 +24638,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.559621193681317</v>
+        <v>1.500509691004899</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.099565338831562</v>
@@ -24955,7 +24727,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552922513705369</v>
+        <v>1.479104769000373</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.149815233650481</v>
@@ -25044,7 +24816,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541791502987868</v>
+        <v>1.469298641546331</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.070781006800785</v>
@@ -25133,7 +24905,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548109654759318</v>
+        <v>1.475309827411247</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.107150964932346</v>
@@ -25222,7 +24994,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626704466402167</v>
+        <v>1.518737832345494</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.859515818944415</v>
@@ -25311,7 +25083,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.673852340023103</v>
+        <v>1.537501615242359</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.907184072661305</v>
@@ -25400,7 +25172,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.672945711399001</v>
+        <v>1.533528061262422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.767953314143378</v>
@@ -25489,7 +25261,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.67221165779059</v>
+        <v>1.536953994981838</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.366407529927582</v>
@@ -25578,7 +25350,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.663806661670248</v>
+        <v>1.525345651879482</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.211172195688883</v>
@@ -25667,7 +25439,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.655314441930248</v>
+        <v>1.523710845539817</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.390041483205803</v>
@@ -25756,7 +25528,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.593937611993705</v>
+        <v>1.483306761577667</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.305393433133697</v>
@@ -25845,7 +25617,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.593861135676404</v>
+        <v>1.486433201564164</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.267983168447126</v>
@@ -25934,7 +25706,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.592599254958217</v>
+        <v>1.478755472819067</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.335083339762196</v>
@@ -26023,7 +25795,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.592688267825091</v>
+        <v>1.467308611674226</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.262006699316102</v>
@@ -26112,7 +25884,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.587625334456764</v>
+        <v>1.460960003864673</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.224792787431181</v>
@@ -26201,7 +25973,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582898400810546</v>
+        <v>1.462282892146585</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.24565250591919</v>
@@ -26290,7 +26062,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.581441875952023</v>
+        <v>1.467015166525535</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.313232504920374</v>
@@ -26379,7 +26151,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.59178696926552</v>
+        <v>1.471746678417776</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.139514685077986</v>
@@ -26468,7 +26240,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.589531789005798</v>
+        <v>1.463192005509257</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.216085953407215</v>
@@ -26557,7 +26329,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594715123230844</v>
+        <v>1.471509066340165</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.28646090274313</v>
@@ -26646,7 +26418,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.592910972057356</v>
+        <v>1.475813725768461</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.274455694295783</v>
@@ -26735,7 +26507,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.60219184474337</v>
+        <v>1.490582971425478</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.20058070156976</v>
@@ -26824,7 +26596,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.601645228112729</v>
+        <v>1.491144266124518</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.19390243020644</v>
@@ -26913,7 +26685,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.612432951804425</v>
+        <v>1.498208559972826</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.299514803191236</v>
@@ -27002,7 +26774,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.641619867926735</v>
+        <v>1.51206466827928</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.0033947253341</v>
@@ -27091,7 +26863,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.69989402253801</v>
+        <v>1.532623717777503</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.504167004340269</v>
@@ -27180,7 +26952,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.703847928034732</v>
+        <v>1.527818349571864</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.281719365269071</v>
@@ -27269,7 +27041,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.705446673991334</v>
+        <v>1.530018918169793</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.582868021860721</v>
@@ -27358,7 +27130,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.69211321506455</v>
+        <v>1.524581779647601</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.295073726789221</v>
@@ -27447,7 +27219,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.69520831598334</v>
+        <v>1.524911709246858</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.228210909377593</v>
@@ -27536,7 +27308,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.697380536139795</v>
+        <v>1.522685814155166</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.368120123966518</v>
@@ -27625,7 +27397,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.68590323690143</v>
+        <v>1.513509410094213</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.097209923665553</v>
@@ -27714,7 +27486,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.687625525105751</v>
+        <v>1.514928636028593</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.435418483465895</v>
@@ -27803,7 +27575,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.682892128060129</v>
+        <v>1.510475975265076</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.391913581341719</v>
@@ -27892,7 +27664,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.67779817660242</v>
+        <v>1.506188125566023</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.240351465470043</v>
@@ -27981,7 +27753,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.680935778967668</v>
+        <v>1.50535153623503</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.660197028970292</v>
@@ -28070,7 +27842,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.672544761951601</v>
+        <v>1.488604763367164</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.690307869182173</v>
@@ -28159,7 +27931,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.669013505528753</v>
+        <v>1.479420483161557</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.225206113279211</v>
@@ -28248,7 +28020,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.662744162152434</v>
+        <v>1.47493996845161</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.241965827037447</v>
@@ -28337,7 +28109,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.66004653582207</v>
+        <v>1.477236197482183</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.37993450332258</v>
@@ -28426,7 +28198,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.655608466399241</v>
+        <v>1.490107055296321</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.606920974342489</v>
@@ -28515,7 +28287,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.651574195823306</v>
+        <v>1.480418607874887</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.324832797076942</v>
@@ -28801,7 +28573,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.649722901529134</v>
+        <v>1.516981221333594</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.758726049292112</v>
@@ -28890,7 +28662,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64892608954002</v>
+        <v>1.508329655916022</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.125076066014325</v>
@@ -28979,7 +28751,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.645998977575542</v>
+        <v>1.50247968991324</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.288908957762088</v>
@@ -29068,7 +28840,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.641725745273408</v>
+        <v>1.493926564064903</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.398672023316539</v>
@@ -29157,7 +28929,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.64967309102927</v>
+        <v>1.496793636475878</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.324098538213748</v>
@@ -29246,7 +29018,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648923915587245</v>
+        <v>1.49731386506953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.268243186274419</v>
@@ -29335,7 +29107,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.651066655812438</v>
+        <v>1.495697515106974</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.481085395003563</v>
@@ -29424,7 +29196,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.653873345033669</v>
+        <v>1.495769678016035</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.887884803346894</v>
@@ -29513,7 +29285,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649215737215278</v>
+        <v>1.492459476301919</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.682411340068807</v>
@@ -29602,7 +29374,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640083172258787</v>
+        <v>1.479872197343892</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.301451342437929</v>
@@ -29691,7 +29463,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609227765672821</v>
+        <v>1.465204237389682</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.595435587589196</v>
@@ -29780,7 +29552,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598587992768508</v>
+        <v>1.45841262127471</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.689783441250239</v>
@@ -29869,7 +29641,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600402860579698</v>
+        <v>1.458705581090402</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.751804150402662</v>
@@ -29958,7 +29730,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.602348508511884</v>
+        <v>1.449966426568547</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.770751779290311</v>
@@ -30047,7 +29819,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605193671079654</v>
+        <v>1.446893818784497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.633317364211701</v>
@@ -30136,7 +29908,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611437706810599</v>
+        <v>1.453686464363217</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.726392025078888</v>
@@ -30225,7 +29997,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.619520251523532</v>
+        <v>1.463341900863515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.722793009990116</v>
@@ -30314,7 +30086,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.620089947140986</v>
+        <v>1.465327244406138</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.630717051014612</v>
@@ -30403,7 +30175,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.622755548242299</v>
+        <v>1.468070838651742</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.698719716687852</v>
@@ -30492,7 +30264,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.622558235419612</v>
+        <v>1.46933446905546</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.566535574099556</v>
@@ -30581,7 +30353,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619212650023642</v>
+        <v>1.465203370712431</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.071755159056845</v>
@@ -30670,7 +30442,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480316300491598</v>
+        <v>1.393992979071589</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.791483834641477</v>
@@ -30759,7 +30531,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48688608365708</v>
+        <v>1.410073358058063</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.807787243852657</v>
@@ -30848,7 +30620,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.448607607458216</v>
+        <v>1.388408470880117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.871094193177514</v>
@@ -30937,7 +30709,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.454887253664615</v>
+        <v>1.408891298199047</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.91001707804152</v>
@@ -31026,7 +30798,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470036125466017</v>
+        <v>1.423775217463971</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.898331118677221</v>
@@ -31115,7 +30887,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467818746648006</v>
+        <v>1.423688104971212</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.929383205589764</v>
@@ -31204,7 +30976,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.460207395986999</v>
+        <v>1.41895993582821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.956023131956122</v>
@@ -31293,7 +31065,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.459963115785992</v>
+        <v>1.428739874507853</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.984259149181104</v>
@@ -31382,7 +31154,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.420339179724134</v>
+        <v>1.401920512566875</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.98003505855662</v>
@@ -31471,7 +31243,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.41910188107487</v>
+        <v>1.399884141069047</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.991715118293266</v>
@@ -31560,7 +31332,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.416761769245083</v>
+        <v>1.395295476597165</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.958936765114543</v>
@@ -31649,7 +31421,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.418613778740863</v>
+        <v>1.395411448423683</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.958058888174705</v>
@@ -31738,7 +31510,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.418021767135641</v>
+        <v>1.392055721885001</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.956101326952185</v>
@@ -31827,7 +31599,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.416663164919036</v>
+        <v>1.39386118565442</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.998392482350661</v>
@@ -31916,7 +31688,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433721352502909</v>
+        <v>1.40209822326476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.808306719531676</v>
@@ -32005,7 +31777,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.479671463527412</v>
+        <v>1.435596320186951</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.096353372900577</v>
@@ -32094,7 +31866,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.480444485524097</v>
+        <v>1.425996310624064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.96486824909916</v>
@@ -32183,7 +31955,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.533328517786645</v>
+        <v>1.457435216872179</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.009140744000614</v>
@@ -32272,7 +32044,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520003043402856</v>
+        <v>1.435152241902876</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.952503268977918</v>
@@ -32361,7 +32133,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517904967803475</v>
+        <v>1.419357581360709</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.889047796848162</v>
@@ -32450,7 +32222,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517923611786322</v>
+        <v>1.409164342850961</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.947723265705026</v>
@@ -32539,7 +32311,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.514211756464564</v>
+        <v>1.404999857541978</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.871525899897215</v>
@@ -32628,7 +32400,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569713168749821</v>
+        <v>1.409240521003019</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.858720622426963</v>
@@ -32717,7 +32489,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614553636473395</v>
+        <v>1.428619731211903</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.832199583075635</v>
@@ -32806,7 +32578,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610942217065871</v>
+        <v>1.427316770733171</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.778640755804522</v>
@@ -32895,7 +32667,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617770157159718</v>
+        <v>1.438138161210719</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.780464296400981</v>
@@ -32984,7 +32756,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605988242401172</v>
+        <v>1.429391655613839</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.765786113454864</v>
@@ -33073,7 +32845,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.568389982671299</v>
+        <v>1.40908650801665</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.388561235415931</v>
@@ -33162,7 +32934,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.519710269821496</v>
+        <v>1.37317567251231</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.220875756659074</v>
@@ -33251,7 +33023,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.520154293889903</v>
+        <v>1.373495257401803</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.158534224707918</v>
@@ -33340,7 +33112,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.524964478434802</v>
+        <v>1.369002809030061</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.153041038804976</v>
@@ -33429,7 +33201,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.527784956924499</v>
+        <v>1.368691370163394</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.205313015276079</v>
@@ -33518,7 +33290,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.522936730886721</v>
+        <v>1.366484452593662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.16975738130348</v>
@@ -33607,7 +33379,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.523431832663452</v>
+        <v>1.369408166318809</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.163859472785577</v>
@@ -33696,7 +33468,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.524872289921688</v>
+        <v>1.375803938748065</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.220143839396211</v>
@@ -33785,7 +33557,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.535747098963588</v>
+        <v>1.38137788401381</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.115713666046467</v>
@@ -33874,7 +33646,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.544163296625378</v>
+        <v>1.386728095667034</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.154800553059705</v>
@@ -33963,7 +33735,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542749863816467</v>
+        <v>1.389357078043759</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.193127738769325</v>
@@ -34052,7 +33824,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.54142150192105</v>
+        <v>1.39238215443681</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.167981631216679</v>
@@ -34141,7 +33913,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.546120859545647</v>
+        <v>1.393784917203634</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.18309454521764</v>
@@ -34230,7 +34002,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.542876834525427</v>
+        <v>1.392955396907005</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.194605331670793</v>
@@ -34319,7 +34091,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.549874448327984</v>
+        <v>1.390223146386014</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.311466678766415</v>
@@ -34408,7 +34180,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59658438900893</v>
+        <v>1.414352012465961</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.991750262370024</v>
@@ -34497,7 +34269,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.641189909916702</v>
+        <v>1.430614667127893</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.386799042724479</v>
@@ -34586,7 +34358,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.633531956163735</v>
+        <v>1.429507339309708</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.893934193335772</v>
@@ -34675,7 +34447,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.628642786907902</v>
+        <v>1.430059790981462</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.03750996867969</v>
@@ -34764,7 +34536,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.622726533913904</v>
+        <v>1.422933102791856</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.61754288798886</v>
@@ -34853,7 +34625,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.613479593121816</v>
+        <v>1.410568618457383</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.311860258189292</v>
@@ -34942,7 +34714,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.606623728824676</v>
+        <v>1.402072162894384</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.17497953196656</v>
@@ -35031,7 +34803,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.600874879477925</v>
+        <v>1.39696014369792</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.017125314284703</v>
@@ -35120,7 +34892,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.599352751153962</v>
+        <v>1.397338428910448</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.152199381979994</v>
@@ -35209,7 +34981,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.590875022439518</v>
+        <v>1.389985649413444</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.20365304336243</v>
@@ -35298,7 +35070,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.600912842623227</v>
+        <v>1.394458212256982</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.888200394776857</v>
@@ -35387,7 +35159,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.603567099164143</v>
+        <v>1.385788879284605</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.314790408183079</v>
@@ -35476,7 +35248,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.600641191768277</v>
+        <v>1.382733863144814</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.351238324873618</v>
@@ -35565,7 +35337,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.605087292796564</v>
+        <v>1.377418811390947</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.088989635142541</v>
@@ -35654,7 +35426,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.612270823142018</v>
+        <v>1.391328275032723</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.108365461435925</v>
@@ -35743,7 +35515,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.618315784876592</v>
+        <v>1.400621045109315</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.700575409711474</v>
@@ -35832,7 +35604,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.623481280992858</v>
+        <v>1.409759763885784</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.482732591786776</v>
@@ -35921,7 +35693,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.636997138649219</v>
+        <v>1.410227661414821</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.188603667869855</v>
@@ -36207,7 +35979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.624925511295411</v>
+        <v>1.535869961830396</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.31639481867998</v>
@@ -36296,7 +36068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.630754594182254</v>
+        <v>1.537751088488285</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.217443750226039</v>
@@ -36385,7 +36157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.642092646844661</v>
+        <v>1.541584902563925</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.189284689674472</v>
@@ -36474,7 +36246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.647805725654181</v>
+        <v>1.548137394667291</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.007814659952607</v>
@@ -36563,7 +36335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662197728633869</v>
+        <v>1.551187323052368</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.254947626849718</v>
@@ -36652,7 +36424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675811511282003</v>
+        <v>1.55465296212476</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.338832637921024</v>
@@ -36741,7 +36513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667449838381962</v>
+        <v>1.543864902586709</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.230433384625878</v>
@@ -36830,7 +36602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679269788250729</v>
+        <v>1.550486880429796</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.184047616077909</v>
@@ -36919,7 +36691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.678455801925633</v>
+        <v>1.5449323965745</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.054870909326847</v>
@@ -37008,7 +36780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657508798784524</v>
+        <v>1.529421032409815</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.849839807316214</v>
@@ -37097,7 +36869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636876252732096</v>
+        <v>1.517106957189815</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.13654688224949</v>
@@ -37186,7 +36958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.624501256276877</v>
+        <v>1.500279782171875</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.049427208596117</v>
@@ -37275,7 +37047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.616071114910244</v>
+        <v>1.489829888496162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.987540879027445</v>
@@ -37364,7 +37136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.604649086302872</v>
+        <v>1.481979705874121</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.985956294298062</v>
@@ -37453,7 +37225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600856435795356</v>
+        <v>1.478260576085549</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.836444551162472</v>
@@ -37542,7 +37314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607545040798674</v>
+        <v>1.483154978865578</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.335106074067745</v>
@@ -37631,7 +37403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609380831587066</v>
+        <v>1.478218353550467</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.436635711005739</v>
@@ -37720,7 +37492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60578952038755</v>
+        <v>1.4725225094975</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.12293885896981</v>
@@ -37809,7 +37581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609728370515338</v>
+        <v>1.476274893752787</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.228061547641207</v>
@@ -37898,7 +37670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610515270539048</v>
+        <v>1.485738168964436</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.191384704788771</v>
@@ -37987,7 +37759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570944476148562</v>
+        <v>1.449345481482805</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.25367593581054</v>
@@ -38076,7 +37848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.395624404073201</v>
+        <v>1.343441633327658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.73168613210766</v>
@@ -38165,7 +37937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.334991517362547</v>
+        <v>1.293843405616794</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.691933621315116</v>
@@ -38254,7 +38026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.225248318104721</v>
+        <v>1.191960911393264</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.552660684787497</v>
@@ -38343,7 +38115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.183630991079551</v>
+        <v>1.1690889840496</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.570654112762748</v>
@@ -38432,7 +38204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.186916636472573</v>
+        <v>1.172383041955016</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.579310372802987</v>
@@ -38521,7 +38293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.188813815342764</v>
+        <v>1.175179495072564</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.580442246669595</v>
@@ -38610,7 +38382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.183931816562922</v>
+        <v>1.169540347740736</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.586195505512891</v>
@@ -38699,7 +38471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.190012711693124</v>
+        <v>1.172021594315981</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.627307539593292</v>
@@ -38788,7 +38560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.164056432186511</v>
+        <v>1.149149963235105</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.63818907698502</v>
@@ -38877,7 +38649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.161462811027292</v>
+        <v>1.146691334411247</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.63796191054149</v>
@@ -38966,7 +38738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.161625470814188</v>
+        <v>1.146707080465748</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.640698679587021</v>
@@ -39055,7 +38827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.160761055009452</v>
+        <v>1.147191375873607</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.6383729800892</v>
@@ -39144,7 +38916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.160903943171919</v>
+        <v>1.146537458329056</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.639810230215986</v>
@@ -39233,7 +39005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.161189576890644</v>
+        <v>1.146638972055759</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.633897720450259</v>
@@ -39322,7 +39094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.161897321872108</v>
+        <v>1.14767841294759</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.606806609165078</v>
@@ -39411,7 +39183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.169953659986157</v>
+        <v>1.152971148224046</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.592137512940142</v>
@@ -39500,7 +39272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.188964992383044</v>
+        <v>1.165632925838493</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.517120233564754</v>
@@ -39589,7 +39361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.260938795804962</v>
+        <v>1.229441537983778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.599311794554386</v>
@@ -39678,7 +39450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.280659960905624</v>
+        <v>1.244241824256448</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.640008108931024</v>
@@ -39767,7 +39539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.276310560126153</v>
+        <v>1.23877401437228</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.667013374759269</v>
@@ -39856,7 +39628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.276584270799048</v>
+        <v>1.236708579214406</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.591949775053268</v>
@@ -39945,7 +39717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.28757555055986</v>
+        <v>1.247199806964412</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.652336368003815</v>
@@ -40034,7 +39806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.412177748743924</v>
+        <v>1.344863098376764</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.453804750672746</v>
@@ -40123,7 +39895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522850402227913</v>
+        <v>1.41625473626619</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.569905555337649</v>
@@ -40212,7 +39984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.544533620221143</v>
+        <v>1.432786818469358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.067526947367442</v>
@@ -40301,7 +40073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.546088338491004</v>
+        <v>1.436883149288518</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.840928276739722</v>
@@ -40390,7 +40162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.540882830814189</v>
+        <v>1.424629664050601</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.595499507453167</v>
@@ -40479,7 +40251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.421787656810525</v>
+        <v>1.335100828008835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.472792088410691</v>
@@ -40568,7 +40340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.199462474586984</v>
+        <v>1.173102447909756</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.434565222154284</v>
@@ -40657,7 +40429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.193458071329309</v>
+        <v>1.169332322064264</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.43788893654371</v>
@@ -40746,7 +40518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.195391233777356</v>
+        <v>1.170896648428083</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.43962867925746</v>
@@ -40835,7 +40607,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.198954150937263</v>
+        <v>1.173453537559803</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.436733997995961</v>
@@ -40924,7 +40696,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.199723542945151</v>
+        <v>1.172833038138909</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.438922473779084</v>
@@ -41013,7 +40785,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.200258540859558</v>
+        <v>1.17295239146336</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.440084265683744</v>
@@ -41102,7 +40874,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.20002105423107</v>
+        <v>1.174112188541995</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.437152244520252</v>
@@ -41191,7 +40963,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.202819442674373</v>
+        <v>1.178449775332281</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.436278052003157</v>
@@ -41280,7 +41052,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.204116290951142</v>
+        <v>1.180532676310214</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.437167413019567</v>
@@ -41369,7 +41141,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.202144152261439</v>
+        <v>1.18015431664822</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.433622491207498</v>
@@ -41458,7 +41230,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.201674910187813</v>
+        <v>1.184190168576871</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.432220790814531</v>
@@ -41547,7 +41319,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.198686998483194</v>
+        <v>1.179281853747009</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.425286330716976</v>
@@ -41636,7 +41408,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.199189327828348</v>
+        <v>1.181170910916871</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.426809429968803</v>
@@ -41725,7 +41497,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.202457358169265</v>
+        <v>1.1833169422073</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.43611252169851</v>
@@ -41814,7 +41586,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.270686783082818</v>
+        <v>1.224490431860419</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.299783000692161</v>
@@ -41903,7 +41675,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.610960922303975</v>
+        <v>1.479575185105548</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.104538297788367</v>
@@ -41992,7 +41764,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.637127162638498</v>
+        <v>1.493919736551045</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.396456639435871</v>
@@ -42081,7 +41853,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.637640614288944</v>
+        <v>1.49568265580122</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.603334981825947</v>
@@ -42170,7 +41942,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63879966583268</v>
+        <v>1.500630252614102</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.900287738581365</v>
@@ -42259,7 +42031,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.628215091576908</v>
+        <v>1.490371311948732</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.584910282669442</v>
@@ -42348,7 +42120,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.631687912561553</v>
+        <v>1.492334351708668</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.491789165957591</v>
@@ -42437,7 +42209,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.631205188178313</v>
+        <v>1.490647306911492</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.196790515416065</v>
@@ -42526,7 +42298,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.612948066860313</v>
+        <v>1.473775406021041</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.215464778559648</v>
@@ -42615,7 +42387,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.599761439845456</v>
+        <v>1.457595936300067</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.173040968352382</v>
@@ -42704,7 +42476,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.607158396813249</v>
+        <v>1.455352445197621</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.893961731912505</v>
@@ -42793,7 +42565,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.588070846080762</v>
+        <v>1.434916108010431</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.870694198043735</v>
@@ -42882,7 +42654,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.57914558009427</v>
+        <v>1.427013695045063</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.048970721653365</v>
@@ -42971,7 +42743,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.576602995687102</v>
+        <v>1.419806808324583</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.898521230195664</v>
@@ -43060,7 +42832,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.588506935284613</v>
+        <v>1.43488130227848</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.025834677650443</v>
@@ -43149,7 +42921,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.593169873170255</v>
+        <v>1.446483616971515</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.51624883238967</v>
@@ -43238,7 +43010,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.595941098947455</v>
+        <v>1.449499322226818</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.023406282779342</v>
@@ -43327,7 +43099,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.58800802392089</v>
+        <v>1.442253645039725</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.057636508450962</v>
@@ -43613,7 +43385,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.560929952061893</v>
+        <v>1.521739380525264</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.611959789377786</v>
@@ -43702,7 +43474,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.562271236557654</v>
+        <v>1.529673758200308</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.513805697330971</v>
@@ -43791,7 +43563,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576606089466703</v>
+        <v>1.545060296214492</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.576734089526044</v>
@@ -43880,7 +43652,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597866230891228</v>
+        <v>1.560409624778015</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.630991580406613</v>
@@ -43969,7 +43741,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608118040201285</v>
+        <v>1.566384041025487</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.563376047778938</v>
@@ -44058,7 +43830,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.631561781150787</v>
+        <v>1.584318420704956</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.490436376390304</v>
@@ -44147,7 +43919,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.616474988399987</v>
+        <v>1.566578078574173</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.725156962295552</v>
@@ -44236,7 +44008,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640172068497065</v>
+        <v>1.582119481576765</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.163173121078929</v>
@@ -44325,7 +44097,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.625798387290609</v>
+        <v>1.569899353846863</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.168459478556362</v>
@@ -44414,7 +44186,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620278259722843</v>
+        <v>1.5650069118879</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.082524074110395</v>
@@ -44503,7 +44275,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589317155021313</v>
+        <v>1.540367670796354</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.529511438806869</v>
@@ -44592,7 +44364,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.582360369309742</v>
+        <v>1.540931898676724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.454879516719958</v>
@@ -44681,7 +44453,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.583331697051768</v>
+        <v>1.539431659781794</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381900099174453</v>
@@ -44770,7 +44542,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589280108853009</v>
+        <v>1.538789038793365</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.469088520990799</v>
@@ -44859,7 +44631,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571559330848486</v>
+        <v>1.523608682984473</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.494652768719844</v>
@@ -44948,7 +44720,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.56942983255409</v>
+        <v>1.517136384505359</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.546902566309088</v>
@@ -45037,7 +44809,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.588635194083943</v>
+        <v>1.526558001614931</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.409475183358401</v>
@@ -45126,7 +44898,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.57749800455506</v>
+        <v>1.517599249365997</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.448382202649751</v>
@@ -45215,7 +44987,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574621697808019</v>
+        <v>1.514600319817691</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.491452150716542</v>
@@ -45304,7 +45076,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.562451611503058</v>
+        <v>1.508183540484787</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.508272339657355</v>
@@ -45393,7 +45165,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547562917880996</v>
+        <v>1.500714896724673</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.009191491658897</v>
@@ -45482,7 +45254,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.447640893470038</v>
+        <v>1.421959767669677</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.891194261591375</v>
@@ -45571,7 +45343,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.443066400258826</v>
+        <v>1.421117505833334</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.88154366377289</v>
@@ -45660,7 +45432,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.367594259106184</v>
+        <v>1.356895131065389</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.961486405448422</v>
@@ -45749,7 +45521,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.360961471031439</v>
+        <v>1.360149707390023</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.99130596244779</v>
@@ -45838,7 +45610,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.37693823725432</v>
+        <v>1.379359616544407</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.041791150143796</v>
@@ -45927,7 +45699,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.380580920732807</v>
+        <v>1.384548951990021</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.048775711188964</v>
@@ -46016,7 +45788,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.369793493893225</v>
+        <v>1.374371015376883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.006001197643363</v>
@@ -46105,7 +45877,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.366026675099391</v>
+        <v>1.371163133365663</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.081910996024917</v>
@@ -46194,7 +45966,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.348253942138014</v>
+        <v>1.356089075394583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.08984679615615</v>
@@ -46283,7 +46055,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.343179610845683</v>
+        <v>1.350943488718811</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.072052461459876</v>
@@ -46372,7 +46144,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337507148243408</v>
+        <v>1.342430989926434</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.110075388398704</v>
@@ -46461,7 +46233,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.333352997602014</v>
+        <v>1.340073192300965</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.09936495891448</v>
@@ -46550,7 +46322,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.337120437394005</v>
+        <v>1.341944198917112</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.114610818700358</v>
@@ -46639,7 +46411,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.341216908267579</v>
+        <v>1.347636533804571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.069081738023289</v>
@@ -46728,7 +46500,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.351422167381542</v>
+        <v>1.352445229224074</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.799761490614589</v>
@@ -46817,7 +46589,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.378771174608004</v>
+        <v>1.375990227282781</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.988950232370257</v>
@@ -46906,7 +46678,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.38681123757349</v>
+        <v>1.38069216536169</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.054291506701237</v>
@@ -46995,7 +46767,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.472533064767671</v>
+        <v>1.449419133424263</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.914099166086628</v>
@@ -47084,7 +46856,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494602173868675</v>
+        <v>1.461671855768624</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.285998522431453</v>
@@ -47173,7 +46945,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.48893207321964</v>
+        <v>1.44159502310727</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.118677928796336</v>
@@ -47262,7 +47034,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.487701598928114</v>
+        <v>1.428734973320197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.213466786273381</v>
@@ -47351,7 +47123,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.493304435348471</v>
+        <v>1.434014934976292</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.183492807271123</v>
@@ -47440,7 +47212,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.539239035448928</v>
+        <v>1.452112123641445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.968247158773734</v>
@@ -47529,7 +47301,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.572547428033067</v>
+        <v>1.473535471662591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.790623775339255</v>
@@ -47618,7 +47390,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577279985540946</v>
+        <v>1.479549213853833</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832429263467298</v>
@@ -47707,7 +47479,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611609941880693</v>
+        <v>1.504386895615228</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.576359426717296</v>
@@ -47796,7 +47568,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601656408802107</v>
+        <v>1.493150144148542</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.618909798925518</v>
@@ -47885,7 +47657,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548645363892077</v>
+        <v>1.44183967186776</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.983112523670885</v>
@@ -47974,7 +47746,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.421292154214007</v>
+        <v>1.352109954401888</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.939051045765266</v>
@@ -48063,7 +47835,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.417684007501397</v>
+        <v>1.350628465804164</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.927639629291313</v>
@@ -48152,7 +47924,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.430267763162417</v>
+        <v>1.357440090580015</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.931648483770859</v>
@@ -48241,7 +48013,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.431164665347929</v>
+        <v>1.354352143709191</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.920795751875503</v>
@@ -48330,7 +48102,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.427017391300699</v>
+        <v>1.349881342491129</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.906211023639831</v>
@@ -48419,7 +48191,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.421354484876033</v>
+        <v>1.343847007419058</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.931692108384162</v>
@@ -48508,7 +48280,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.422692080824514</v>
+        <v>1.347643772031837</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.917113924625733</v>
@@ -48597,7 +48369,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.426017227039148</v>
+        <v>1.35180650604408</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.930221078025876</v>
@@ -48686,7 +48458,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.430769780584424</v>
+        <v>1.356650976357524</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.859873214423327</v>
@@ -48775,7 +48547,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.428153552804157</v>
+        <v>1.357895416642299</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.887245768372422</v>
@@ -48864,7 +48636,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.431388295334552</v>
+        <v>1.362289097587246</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.884875902856337</v>
@@ -48953,7 +48725,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.422931272697231</v>
+        <v>1.355178042843174</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.908637839109133</v>
@@ -49042,7 +48814,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.418907506071481</v>
+        <v>1.354688815383386</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.863074797874525</v>
@@ -49131,7 +48903,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.429968318653395</v>
+        <v>1.360038753818657</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.921565593109667</v>
@@ -49220,7 +48992,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.504280085270282</v>
+        <v>1.419325440702045</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.735660841017755</v>
@@ -49309,7 +49081,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.633359747285831</v>
+        <v>1.498854684458352</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.202166360981903</v>
@@ -49398,7 +49170,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.64274628668884</v>
+        <v>1.512439823455012</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.097081582032308</v>
@@ -49487,7 +49259,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.637021395677201</v>
+        <v>1.512938990791862</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.945177767727951</v>
@@ -49576,7 +49348,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.634294116203682</v>
+        <v>1.510419061552781</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.682645502919307</v>
@@ -49665,7 +49437,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.632954752653952</v>
+        <v>1.50776728722694</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.03983349321106</v>
@@ -49754,7 +49526,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.648659568230065</v>
+        <v>1.51997516302344</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.210615011877475</v>
@@ -49843,7 +49615,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.644545605707782</v>
+        <v>1.519106787332397</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.008153515715869</v>
@@ -49932,7 +49704,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.624312897430384</v>
+        <v>1.505257417979191</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.825206289916221</v>
@@ -50021,7 +49793,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.603512951130282</v>
+        <v>1.490998889172526</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.777029647308017</v>
@@ -50110,7 +49882,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.608312137282787</v>
+        <v>1.496127759597626</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.672532752467247</v>
@@ -50199,7 +49971,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.608396742701889</v>
+        <v>1.486464846395056</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.85556192920982</v>
@@ -50288,7 +50060,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.626586061095872</v>
+        <v>1.49309220989572</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.857142399455118</v>
@@ -50377,7 +50149,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.61611895755022</v>
+        <v>1.486119209924282</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.78599616200599</v>
@@ -50466,7 +50238,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.62056967280502</v>
+        <v>1.494981144761952</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.923947167860466</v>
@@ -50555,7 +50327,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.62729564368949</v>
+        <v>1.504947301750184</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.894796101048169</v>
@@ -50644,7 +50416,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.617669046359519</v>
+        <v>1.49900570855577</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.929440665122031</v>
@@ -50733,7 +50505,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.611882903698449</v>
+        <v>1.487753864376918</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.791060430100154</v>
